--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1963845.963124058</v>
+        <v>2055837.208587567</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577129</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6287777.850919774</v>
+        <v>6643785.188629746</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>400.7950794125002</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -668,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>65.04649299073976</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -710,22 +712,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.28391178232732</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>86.75047488626167</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
-        <v>111.6912643954346</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,19 +1110,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>166.4144478446113</v>
+        <v>46.16191430098121</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>90.34343905326024</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>30.95554733245289</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.54606595310771</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1540,10 +1542,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>157.0668051049845</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1582,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.8277938782463</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>35.63123167948115</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.64823684846804</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875628</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>16.77886795121402</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>48.88559480404849</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.67901514247981</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2615,7 +2617,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>12.74825416196581</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>87.82120457212974</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3320,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>146.7855775533106</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>94.66060577409603</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>121.8235736002275</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.448947331652482</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3718,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>331.6435322603521</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>200.4706009850859</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3979,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>150.396164049718</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>140.1386888119097</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504.3266957455847</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48318118750379</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>126.6408577476776</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>104.7043219359392</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>1329.512330082224</v>
+        <v>185.8582267244007</v>
       </c>
       <c r="Y2" t="n">
-        <v>924.1750600371148</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>308.6094817404178</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="M3" t="n">
-        <v>308.6094817404178</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>765.3953884431487</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1222.18129514588</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.967201848611</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.20132845514</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>200.228765334056</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91199246082674</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>36.91199246082674</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.464575560472</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1587.837833251117</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1306.126365859145</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.273962031658</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>788.7100654774636</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.3672971672056</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.3026401727913</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>99.48318118750379</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>80.23096441290814</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>58.29442860116974</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>37.21065083097405</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331441</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>932.027809635875</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1388.813716338606</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1845.599623041337</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1449.208273341684</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1037.488274509431</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>632.1510044643213</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050605</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.8270048838798</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>518.8270048838798</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>518.8270048838798</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1799.725677711293</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V7" t="n">
-        <v>983.8453774234324</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>708.9929735959454</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>708.9929735959454</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>708.9929735959454</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>526.3839111742037</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>99.48318118750379</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>815.1719019525203</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>815.1719019525203</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341684</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1037.488274509431</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>946.2322754657338</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273878</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023298</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023298</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023298</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>316.0561247023298</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>772.8420314050607</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>710.2713085277261</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>538.2987454066421</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>374.9819725334128</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>208.7737666862663</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1644.196345931731</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1644.196345931731</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1369.343942104244</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.78004555005</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>900.4372772397917</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1332.080299397014</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2229.072890214133</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>2229.072890214133</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2459.847729487865</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3168.127008645793</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.212488149976</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3556.994239712493</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3336.068668757126</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3336.068668757126</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3336.068668757126</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3336.068668757126</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3336.068668757126</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>344.1817390425906</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.17432985971</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1241.17432985971</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.152570258806</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1148.061741071352</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>976.0891779502679</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>812.7724050770386</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>646.5641992298921</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>474.7024250044525</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.422881921163</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1839.422881921163</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1564.570478093676</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.570478093676</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.227709783418</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1234.712743766645</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1234.712743766645</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1234.712743766645</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299951</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>969.4768405801184</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>1764.518912300141</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>2661.51150311726</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.656153268073</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3506.656153268073</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3506.656153268073</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149975</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023116</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3483.854050912529</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3225.499141508941</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2868.00972663519</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2471.618376935537</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2059.898378103284</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1654.561108058175</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>1180.980547125497</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1180.980547125497</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1180.980547125497</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.3718253071365</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>554.3992621860525</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>554.3992621860525</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3992621860525</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>382.537487960613</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2805182548451</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299951</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299951</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1512.19982010864</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1237.347416281153</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>994.7835197269582</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.4407514167002</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,37 +5503,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2110.0395278175</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5595,22 +5597,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1446.844867123559</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>769.9464360574118</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574118</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841825</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2265.767389353084</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1985.582940853388</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1703.871473461417</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1429.01906963393</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.455173079735</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>960.1124047694775</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5746,34 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.606254915256</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>896.6336917941717</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>733.3169189209424</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>567.1087130737959</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>395.2469388483563</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2002.531292319261</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1727.678888491774</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1485.114991937579</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1258.772223627321</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1022.167063056836</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>850.1944999357522</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6184,13 +6186,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1260.306816359498</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1260.306816359498</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.96404804924</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,40 +6214,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,7 +6262,7 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
         <v>3777.607131232208</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3278.556980224822</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.584417103738</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>3106.584417103738</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3106.584417103738</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>5017.717281294595</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4774.377933520494</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4494.193485020799</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4212.482017628828</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>3937.629613801341</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>3695.065717247146</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>3468.722948936888</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2269.838716412931</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2269.838716412931</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.499368638831</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2026.499368638831</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1744.78790124686</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>913.7427045492574</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1976.833792578669</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.649344078974</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.937876687002</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1140.085472859515</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1140.085472859515</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>913.7427045492574</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,10 +6925,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6938,22 +6940,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.1025083526774</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1025083526774</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>679.7857354794481</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>513.5775296323017</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>341.7157554068621</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.268477064743</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1033.268477064743</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,34 +7174,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
         <v>4789.842805209199</v>
@@ -7254,19 +7256,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.5863609803849</v>
+        <v>608.0932463474678</v>
       </c>
       <c r="C40" t="n">
-        <v>391.6137978593009</v>
+        <v>608.0932463474678</v>
       </c>
       <c r="D40" t="n">
-        <v>391.6137978593009</v>
+        <v>608.0932463474678</v>
       </c>
       <c r="E40" t="n">
-        <v>391.6137978593009</v>
+        <v>441.8850405003213</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>270.0232662748817</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>103.7662965691139</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,52 +7332,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358278</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302486</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1267.165879923986</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>1024.601983369791</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>798.2592150595335</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2106.543972009935</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1679.643242023235</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1256.350621208236</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>830.3736813560932</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>405.2494995454934</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2047.588607372513</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2944.581198189631</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3168.127008645791</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3168.127008645791</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149974</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3624.212488149974</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3624.212488149974</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3266.723073276224</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3266.723073276224</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2931.729606346575</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2526.392336301466</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944547</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119595</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272445</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001817</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>79.93089272491133</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93089272491133</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>79.93089272491133</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>916.7297008078175</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>1813.722291624936</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1881.171880343509</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.227638861225</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145174</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.5421540170369</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>335.5695908959528</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>172.2528180227235</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>172.2528180227235</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2528180227235</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227235</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4842497629995</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.858663863301</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>2003.363107312709</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1723.178658813013</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1441.467191421042</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1166.614787593555</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>924.0508910393605</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.7081227291026</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.605000840724</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.4842497629995</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>72.4842497629995</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>72.4842497629995</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>969.4768405801182</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.469431397237</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2763.462022214355</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3506.656153268072</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.656153268072</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268072</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023115</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067748</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.56471366416</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.56471366416</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2644.173363964507</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2232.453365132254</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2232.453365132254</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944547</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119595</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272445</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001817</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>125.8603430006899</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>72.4842497629995</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491133</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>87.18669870927192</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>87.18669870927192</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>87.18669870927192</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>984.1792895263906</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>1881.171880343509</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1881.171880343509</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.171880343509</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>908.227638861225</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145174</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2097.638272422362</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>1925.665709301278</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>1925.665709301278</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>1759.457503454131</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>1587.595729228692</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>1587.595729228692</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>1443.799460736846</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>1443.799460736846</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>1501.290788961004</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>1727.818390166841</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>2082.507711461262</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>2473.693506431513</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>2851.185017307549</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>3206.613145987312</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>3497.212357909213</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>3624.212488149974</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>3454.077440669109</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>3210.738092895009</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>2930.553644395313</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>2788.999413272172</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>2514.147009444685</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>2514.147009444685</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>2287.804241134427</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>39.7358160668222</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>480.8559469023526</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.0626152513283</v>
+        <v>33.56260952839192</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203824</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.5407536736397</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.95688127998122</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>457.2862635810461</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>101.1178171425365</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8690,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701168</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>270.4968576123192</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498219</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>586.7862739637339</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701167</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>840.5040626166268</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719399</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9015,13 +9017,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
-        <v>730.4358626697098</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>397.6042905607445</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,16 +9245,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>784.1890535317962</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,7 +9415,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9422,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574439</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>406.5994887481519</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036184</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10902,22 +10904,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N39" t="n">
-        <v>353.3848726586917</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11066,22 +11068,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369254</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719397</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>263.1948083016401</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>929.1499025498216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>89.47392590907</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701165</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369254</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719397</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>788.0921018345255</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>27.94021128723292</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>929.1499025498216</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>927.3961502510352</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>36.77755523248328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.527594903725657</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>79.31046371040659</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>183.085083566332</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.616072176477</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.4924275998966</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>224.127086345145</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>115.7088052046617</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.5852938824652</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.81997301773278</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.0847497242293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.47873147163443</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>69.93379423461415</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.31958288295769</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>140.9093584752747</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>75.95926658357814</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,10 +25797,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>40.43535331127313</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>272.2355586371149</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>138.7556639061417</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>562449.2488189233</v>
+        <v>563596.6580449054</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>562449.2488189233</v>
+        <v>567311.7173936529</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>562449.2488189233</v>
+        <v>567311.7173936529</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459096.282848127</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459096.2828481269</v>
+        <v>577407.929813623</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136227</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577407.9298136228</v>
+        <v>577407.929813623</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577407.9298136227</v>
+        <v>577407.929813623</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459096.282848127</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459096.2828481269</v>
+        <v>577407.929813623</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>495076.2678094887</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094886</v>
+        <v>495076.2678094889</v>
       </c>
       <c r="E2" t="n">
-        <v>379856.0808657497</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="F2" t="n">
-        <v>379856.0808657497</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="G2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="K2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="L2" t="n">
         <v>477725.8426668304</v>
       </c>
-      <c r="L2" t="n">
-        <v>477725.8426668303</v>
-      </c>
       <c r="M2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="N2" t="n">
+        <v>477725.8426668307</v>
+      </c>
+      <c r="O2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="P2" t="n">
         <v>477725.8426668305</v>
-      </c>
-      <c r="N2" t="n">
-        <v>477725.8426668306</v>
-      </c>
-      <c r="O2" t="n">
-        <v>379856.0808657496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>379856.0808657496</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096018</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.92009431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091333</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204221</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.5688130455</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.56881304549</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
         <v>72380.62724986371</v>
@@ -26448,16 +26450,16 @@
         <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986365</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="O4" t="n">
-        <v>57519.56881304549</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="P4" t="n">
-        <v>57519.56881304549</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987963</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987962</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987961</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987961</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79308.72350071775</v>
+        <v>74423.02800515443</v>
       </c>
       <c r="C6" t="n">
-        <v>233934.4441188383</v>
+        <v>221602.1175825493</v>
       </c>
       <c r="D6" t="n">
-        <v>233934.4441188381</v>
+        <v>245008.9512561617</v>
       </c>
       <c r="E6" t="n">
-        <v>134484.8142232228</v>
+        <v>111855.7966718964</v>
       </c>
       <c r="F6" t="n">
-        <v>267248.4822328246</v>
+        <v>327595.1532285368</v>
       </c>
       <c r="G6" t="n">
-        <v>225435.233134227</v>
+        <v>327595.1532285371</v>
       </c>
       <c r="H6" t="n">
-        <v>327595.1532285371</v>
+        <v>327595.1532285369</v>
       </c>
       <c r="I6" t="n">
         <v>327595.1532285368</v>
       </c>
       <c r="J6" t="n">
-        <v>206872.6362857799</v>
+        <v>201017.8846482481</v>
       </c>
       <c r="K6" t="n">
+        <v>308948.5528715171</v>
+      </c>
+      <c r="L6" t="n">
         <v>327595.153228537</v>
       </c>
-      <c r="L6" t="n">
-        <v>327595.1532285369</v>
-      </c>
       <c r="M6" t="n">
-        <v>216785.7931194037</v>
+        <v>147531.2817733694</v>
       </c>
       <c r="N6" t="n">
-        <v>327595.1532285372</v>
+        <v>327595.1532285373</v>
       </c>
       <c r="O6" t="n">
-        <v>267248.4822328245</v>
+        <v>327595.153228537</v>
       </c>
       <c r="P6" t="n">
-        <v>267248.4822328244</v>
+        <v>327595.1532285371</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374939</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374938</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374936</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374936</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.730795535363</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771597</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.730795535363</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>21.83664327433269</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>355.826447001754</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>2.284315397371259</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>190.6321291284371</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>82.23069669041814</v>
       </c>
       <c r="C5" t="n">
-        <v>310.9404582913983</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>112.4799048734401</v>
+        <v>232.7324384170702</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>310.9404582913983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>246.4270566822458</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-7.955339370490157e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>443.4649875463285</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.3155769623498</v>
+        <v>10.81557123941343</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255731</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.7937153846612</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.33731851519627</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35410,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374939</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374939</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>233.1058982562951</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374939</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>563.6143842415117</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374938</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>803.072799717195</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374938</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
-        <v>707.2639729474876</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>361.4796159561464</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>761.6739668175666</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,7 +36135,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439022</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338712</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N39" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937791</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37786,22 +37788,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374936</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374936</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>225.803848945616</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>68.13089769552835</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374936</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374936</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374936</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>750.7011424785013</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.329096953899588</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.0531220374936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2055837.208587567</v>
+        <v>2055140.547382476</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299073976</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>175.9296055108067</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>53.2499863575018</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.16191430098121</v>
+        <v>115.1055716303395</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>162.2082248787756</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1341,13 +1341,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864466</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>77.00336057468955</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782463</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1663,10 +1663,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250139</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>40.12608978041848</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1827,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875628</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1861,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>52.59329370787292</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3322,7 +3322,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040147005</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>113.9811728869507</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.448947331652482</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3954,10 +3954,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>44.58691302725779</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4188,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>1336.254862086502</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476776</v>
+        <v>486.061511284803</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359392</v>
+        <v>60.08457143266054</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>39.00079366246484</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873576</v>
+        <v>517.6410595347469</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873576</v>
+        <v>996.5799837771763</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229786</v>
+        <v>1475.518908019606</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1479.021285111693</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244007</v>
+        <v>1757.400092382738</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>1756.103226378033</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237727</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412774</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000795</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>46.14877825422937</v>
       </c>
       <c r="J3" t="n">
         <v>317.8462675338204</v>
@@ -4415,19 +4415,19 @@
         <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762484</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018677</v>
+        <v>343.3471304404861</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>822.2860546829155</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261105</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261105</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.445524390543</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438354</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>665.6285796304619</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>665.6285796304619</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>502.3118067572326</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>502.3118067572326</v>
       </c>
       <c r="F4" t="n">
         <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>282.2669720438872</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>138.4707035520416</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231753</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1935.106764615876</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1654.922316116181</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>1373.210848724209</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>1098.358444896722</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>855.7945483425275</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>855.7945483425275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C5" t="n">
         <v>915.1502218567327</v>
@@ -4552,7 +4552,7 @@
         <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
         <v>44.79688341939484</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
         <v>1307.021068682275</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4810,16 +4810,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>2059.767694660928</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M9" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N9" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="N9" t="n">
-        <v>1696.494830002562</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1696.494830002562</v>
-      </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5053,25 +5053,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2204.934568521291</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1961.595220747191</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1681.410772247495</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1681.410772247495</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1406.558368420008</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>1163.994471865813</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>937.6517035555551</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261616</v>
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,22 +5284,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5320,7 +5320,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>890.8366926500012</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>718.8641295289171</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>718.8641295289171</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>552.6559236817707</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>1081.002661362067</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5840,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1939.213240633168</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1657.501773241197</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1382.64936941371</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1140.085472859515</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>913.7427045492574</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6548,22 +6548,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6791,16 +6791,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6973,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751467</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359496</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320092</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>742.8905159778143</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7204,22 +7204,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474678</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474678</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474678</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003213</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748817</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691139</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7335,49 +7335,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358278</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302486</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751473</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923986</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369791</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595335</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7417,10 +7417,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7654,22 +7654,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,10 +7684,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>579.5737431045859</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>413.3655372574394</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>413.3655372574394</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>247.1085675516716</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.677127506129</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025264</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>1822.202732251164</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1542.018283751468</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1260.306816359497</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>985.4544125320101</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>742.8905159778152</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>742.8905159778152</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>519.5412919487784</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.7358160668222</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884151</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>521.1676505099931</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>41.11311644870375</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>48.85522789279838</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675108</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>506.9485808761913</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839192</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>280.995338059145</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>459.5991032870439</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8458,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,10 +8467,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>184.5908146029608</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8701,7 +8701,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8777,7 +8777,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>280.9771495655156</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9725,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,13 +10196,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10439,10 +10439,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10451,7 +10451,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10597,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>91.43033643136694</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040659</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>130.0170667027667</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998966</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.7893103068258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163443</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>110.0981677402047</v>
       </c>
     </row>
     <row r="38">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752747</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.77139277966936</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>563596.6580449054</v>
+        <v>563596.6580449055</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>577407.9298136227</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>577407.929813623</v>
+        <v>577407.9298136228</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>495076.2678094886</v>
       </c>
       <c r="C2" t="n">
+        <v>495076.2678094886</v>
+      </c>
+      <c r="D2" t="n">
         <v>495076.2678094887</v>
       </c>
-      <c r="D2" t="n">
-        <v>495076.2678094889</v>
-      </c>
       <c r="E2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="F2" t="n">
+        <v>477725.8426668304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="H2" t="n">
+        <v>477725.8426668306</v>
+      </c>
+      <c r="I2" t="n">
         <v>477725.8426668303</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>477725.8426668302</v>
       </c>
-      <c r="G2" t="n">
-        <v>477725.8426668305</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="L2" t="n">
         <v>477725.8426668303</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>477725.8426668302</v>
       </c>
-      <c r="J2" t="n">
-        <v>477725.8426668303</v>
-      </c>
-      <c r="K2" t="n">
-        <v>477725.8426668303</v>
-      </c>
-      <c r="L2" t="n">
-        <v>477725.8426668304</v>
-      </c>
-      <c r="M2" t="n">
-        <v>477725.8426668304</v>
-      </c>
       <c r="N2" t="n">
-        <v>477725.8426668307</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="O2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="P2" t="n">
         <v>477725.8426668305</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695916</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361188</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802891</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701952</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125816</v>
       </c>
       <c r="C4" t="n">
-        <v>182621.0655158991</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
         <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="F4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986367</v>
       </c>
       <c r="G4" t="n">
         <v>72380.62724986373</v>
       </c>
       <c r="H4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="I4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72380.62724986373</v>
       </c>
       <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="K4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="L4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.62724986373</v>
       </c>
       <c r="M4" t="n">
         <v>72380.62724986365</v>
       </c>
       <c r="N4" t="n">
+        <v>72380.62724986367</v>
+      </c>
+      <c r="O4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="O4" t="n">
-        <v>72380.62724986373</v>
-      </c>
       <c r="P4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986364</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216132</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,7 +26478,7 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
         <v>77750.06218842969</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74423.02800515443</v>
+        <v>74423.02800515412</v>
       </c>
       <c r="C6" t="n">
-        <v>221602.1175825493</v>
+        <v>221602.1175825496</v>
       </c>
       <c r="D6" t="n">
-        <v>245008.9512561617</v>
+        <v>245008.9512561615</v>
       </c>
       <c r="E6" t="n">
-        <v>111855.7966718964</v>
+        <v>111804.7660097123</v>
       </c>
       <c r="F6" t="n">
-        <v>327595.1532285368</v>
+        <v>327544.1225663527</v>
       </c>
       <c r="G6" t="n">
-        <v>327595.1532285371</v>
+        <v>327544.1225663525</v>
       </c>
       <c r="H6" t="n">
-        <v>327595.1532285369</v>
+        <v>327544.1225663529</v>
       </c>
       <c r="I6" t="n">
-        <v>327595.1532285368</v>
+        <v>327544.1225663526</v>
       </c>
       <c r="J6" t="n">
-        <v>201017.8846482481</v>
+        <v>200966.8539860634</v>
       </c>
       <c r="K6" t="n">
-        <v>308948.5528715171</v>
+        <v>308897.522209333</v>
       </c>
       <c r="L6" t="n">
-        <v>327595.153228537</v>
+        <v>327544.1225663527</v>
       </c>
       <c r="M6" t="n">
-        <v>147531.2817733694</v>
+        <v>147480.251111185</v>
       </c>
       <c r="N6" t="n">
-        <v>327595.1532285373</v>
+        <v>327544.1225663526</v>
       </c>
       <c r="O6" t="n">
-        <v>327595.153228537</v>
+        <v>327544.1225663525</v>
       </c>
       <c r="P6" t="n">
-        <v>327595.1532285371</v>
+        <v>327544.1225663528</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.45112196162506</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>355.826447001754</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>231.6731933331235</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>116.8931701256834</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397371259</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>342.9323154271054</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170702</v>
+        <v>163.7887810877119</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27909,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27918,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>163.7887810877131</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-5.681602616057837e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.729281341366673e-12</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167390384</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.537754638472451</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>25.75844738047041</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539691</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941343</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>258.4961505607205</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35178,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37171,7 +37171,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37317,7 +37317,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937791</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38192,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968687</v>
       </c>
       <c r="Q46" t="n">
         <v>128.2829598391535</v>
